--- a/results/I2_N7_T30_C210_0_mean_res.xlsx
+++ b/results/I2_N7_T30_C210_0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.93778129856641</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4069998264312744</v>
+        <v>0.435999870300293</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2710610955362567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.9377812985664</v>
+        <v>26.53458309510687</v>
       </c>
     </row>
     <row r="7">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.94092761328184</v>
+        <v>21.94092761328185</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28.38440776138319</v>
+        <v>24.60774714383449</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.75303061214629</v>
+        <v>20.97636999459758</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>27.6219966358308</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +966,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>24.74301612009232</v>
+        <v>26.17649375572632</v>
       </c>
     </row>
     <row r="10">
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>56.93200000002072</v>
+        <v>56.9320000000007</v>
       </c>
     </row>
     <row r="4">
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>158.0630000000657</v>
+        <v>158.0629999999927</v>
       </c>
     </row>
     <row r="5">
@@ -1111,7 +1111,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>187.9600000000466</v>
+        <v>121.9380000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>141.174000000021</v>
+        <v>75.15200000000006</v>
       </c>
     </row>
     <row r="7">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>66.02200000000269</v>
+        <v>66.02199999999903</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>62.73200000000908</v>
+        <v>184.6700000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>194.7969999999751</v>
+        <v>194.7970000000097</v>
       </c>
     </row>
     <row r="10">
@@ -1166,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>194.7969999999569</v>
+        <v>194.7970000000159</v>
       </c>
     </row>
     <row r="11">
@@ -1177,7 +1177,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>62.73200000007274</v>
+        <v>184.6700000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>187.9600000000665</v>
+        <v>66.02199999999903</v>
       </c>
     </row>
   </sheetData>

--- a/results/I2_N7_T30_C210_0_mean_res.xlsx
+++ b/results/I2_N7_T30_C210_0_mean_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.435999870300293</v>
+        <v>0.4500000476837158</v>
       </c>
     </row>
     <row r="5">
